--- a/src/test/resources/example.xlsx
+++ b/src/test/resources/example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EMPLOYEES" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,11 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1838,25 +1843,25 @@
   </sheetPr>
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="I75" activeCellId="0" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0051020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.4387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0816326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5918367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.8520408163265"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.9336734693878"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.5612244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5435,18 +5440,16 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1989795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5641,8 +5644,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5655,16 +5658,15 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5952,8 +5954,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>